--- a/data/trans_camb/P44-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44-Estudios-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P44-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,37</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 6,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,34; 32,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 4,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,33; 23,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 4,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,63; 25,81</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>376,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>315,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>339,46%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 103,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>251,27; 562,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,71; 79,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>220,68; 433,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 68,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>261,25; 450,3</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 4,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,63; 38,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,72; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 23,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 1,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,6; 28,46</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>231,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>240,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>231,14%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,48; 54,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>139,76; 381,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,67; 26,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,96; 400,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,95; 24,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>145,52; 344,75</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,37</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 12,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,31; 38,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,37; 4,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,82; 29,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 6,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,38; 32,52</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>202,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,7%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,54; 126,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,44; 468,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,38; 41,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,5; 269,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,45; 57,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,76; 289,66</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,56; 36,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 2,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,49; 23,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,38; 28,02</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>303,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>281,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>294,18%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 59,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>230,86; 426,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,66; 34,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>198,0; 367,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 35,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>235,34; 367,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44-Estudios-trans_camb.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,02</t>
+          <t>27,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>20,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,37</t>
+          <t>23,13</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 32,32</t>
+          <t>23,3; 32,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 23,23</t>
+          <t>17,04; 22,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,63; 25,81</t>
+          <t>20,38; 25,55</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>376,27%</t>
+          <t>374,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>315,48%</t>
+          <t>308,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>339,46%</t>
+          <t>335,97%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>251,27; 562,26</t>
+          <t>249,29; 559,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>220,68; 433,39</t>
+          <t>214,82; 425,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>261,25; 450,3</t>
+          <t>259,06; 447,57</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,42</t>
+          <t>38,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,82</t>
+          <t>15,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,45</t>
+          <t>27,69</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 38,69</t>
+          <t>21,41; 63,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 23,89</t>
+          <t>3,54; 23,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 28,46</t>
+          <t>16,44; 49,31</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>231,87%</t>
+          <t>338,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>240,56%</t>
+          <t>203,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>231,14%</t>
+          <t>285,14%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>139,76; 381,37</t>
+          <t>167,82; 749,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,96; 400,94</t>
+          <t>41,95; 366,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>145,52; 344,75</t>
+          <t>158,72; 609,61</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,09</t>
+          <t>29,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,81</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,37</t>
+          <t>25,29</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 38,94</t>
+          <t>19,76; 38,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 29,32</t>
+          <t>5,83; 29,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 32,52</t>
+          <t>17,07; 32,5</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>202,56%</t>
+          <t>200,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>151,7%</t>
+          <t>151,27%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,44; 468,45</t>
+          <t>85,19; 461,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,5; 269,62</t>
+          <t>19,17; 269,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,76; 289,66</t>
+          <t>72,54; 288,51</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,93</t>
+          <t>36,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,93</t>
+          <t>19,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,67</t>
+          <t>27,48</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,56; 36,27</t>
+          <t>26,04; 57,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 23,54</t>
+          <t>10,41; 23,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,38; 28,02</t>
+          <t>21,17; 41,41</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>303,07%</t>
+          <t>378,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>281,31%</t>
+          <t>257,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>294,18%</t>
+          <t>327,72%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>230,86; 426,39</t>
+          <t>258,65; 690,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>198,0; 367,42</t>
+          <t>134,85; 344,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>235,34; 367,53</t>
+          <t>237,33; 505,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 6,07</t>
+          <t>-0,99; 5,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,3; 32,2</t>
+          <t>22,96; 32,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,47</t>
+          <t>-1,21; 3,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,88</t>
+          <t>17,22; 23,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,16</t>
+          <t>-0,15; 3,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 25,55</t>
+          <t>20,3; 25,59</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 103,7</t>
+          <t>-9,3; 101,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>249,29; 559,68</t>
+          <t>246,31; 564,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 79,28</t>
+          <t>-15,35; 74,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>214,82; 425,1</t>
+          <t>220,82; 425,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 68,98</t>
+          <t>-2,0; 62,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>259,06; 447,57</t>
+          <t>249,86; 428,33</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,6</t>
+          <t>-4,18; 4,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,41; 63,75</t>
+          <t>21,6; 66,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,26</t>
+          <t>-5,84; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 23,7</t>
+          <t>3,99; 23,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,88</t>
+          <t>-3,77; 1,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 49,31</t>
+          <t>15,63; 50,06</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 54,69</t>
+          <t>-28,74; 45,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>167,82; 749,0</t>
+          <t>173,78; 753,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,67; 26,43</t>
+          <t>-55,84; 27,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,95; 366,89</t>
+          <t>41,64; 362,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 24,64</t>
+          <t>-32,7; 20,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>158,72; 609,61</t>
+          <t>151,15; 577,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 12,27</t>
+          <t>-8,77; 12,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,76; 38,41</t>
+          <t>19,24; 38,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 4,86</t>
+          <t>-19,49; 5,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 29,44</t>
+          <t>5,15; 29,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 6,79</t>
+          <t>-8,69; 6,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 32,5</t>
+          <t>16,87; 32,29</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 126,09</t>
+          <t>-39,79; 143,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,19; 461,66</t>
+          <t>79,93; 403,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 41,05</t>
+          <t>-67,93; 58,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 269,95</t>
+          <t>14,72; 271,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 57,12</t>
+          <t>-41,21; 54,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,54; 288,51</t>
+          <t>71,99; 278,12</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,82</t>
+          <t>-0,39; 4,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,04; 57,62</t>
+          <t>26,06; 57,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,14</t>
+          <t>-1,97; 1,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,41; 23,18</t>
+          <t>10,9; 23,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,68</t>
+          <t>-0,49; 2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,17; 41,41</t>
+          <t>20,68; 40,36</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 59,12</t>
+          <t>-3,83; 57,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>258,65; 690,89</t>
+          <t>254,38; 684,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 34,1</t>
+          <t>-23,36; 30,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>134,85; 344,3</t>
+          <t>145,99; 346,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 35,02</t>
+          <t>-5,41; 36,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>237,33; 505,93</t>
+          <t>232,11; 485,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44-Estudios-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
